--- a/data/trans_bre/P6904-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 17,76</t>
+          <t>-18,99; 16,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 15,65</t>
+          <t>-28,9; 13,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 27,59</t>
+          <t>-13,4; 27,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 20,94</t>
+          <t>-18,27; 18,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 70,16</t>
+          <t>-44,65; 62,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 44,24</t>
+          <t>-56,22; 40,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 85,43</t>
+          <t>-25,22; 88,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 65,51</t>
+          <t>-32,09; 55,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 41,81</t>
+          <t>0,19; 42,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,91; -1,59</t>
+          <t>-49,42; 1,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 34,67</t>
+          <t>-17,87; 34,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 27,21</t>
+          <t>-13,99; 23,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 360,84</t>
+          <t>-5,76; 341,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,88; 1,46</t>
+          <t>-84,1; 9,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 85,17</t>
+          <t>-25,12; 88,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 89,47</t>
+          <t>-25,11; 73,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 18,19</t>
+          <t>-37,59; 15,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 28,62</t>
+          <t>-15,62; 26,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 37,98</t>
+          <t>-21,86; 43,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 35,05</t>
+          <t>-5,22; 35,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 29,85</t>
+          <t>-57,13; 27,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 64,26</t>
+          <t>-26,27; 56,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,33; 80,59</t>
+          <t>-35,21; 85,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 65,82</t>
+          <t>-6,35; 67,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 14,79</t>
+          <t>-16,77; 14,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 9,47</t>
+          <t>-21,05; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 18,55</t>
+          <t>-6,03; 19,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 6,77</t>
+          <t>-18,24; 5,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 28,07</t>
+          <t>-27,22; 25,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 17,55</t>
+          <t>-30,67; 16,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 30,84</t>
+          <t>-8,44; 33,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 11,08</t>
+          <t>-24,88; 8,77</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 32,04</t>
+          <t>-4,53; 31,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 36,24</t>
+          <t>-8,08; 36,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 29,05</t>
+          <t>-4,81; 29,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 21,54</t>
+          <t>-10,81; 24,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 82,79</t>
+          <t>-8,14; 78,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 81,38</t>
+          <t>-11,86; 89,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 54,31</t>
+          <t>-6,27; 53,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 34,32</t>
+          <t>-13,07; 40,05</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 7,71</t>
+          <t>-9,04; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 5,98</t>
+          <t>-12,72; 5,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,55</t>
+          <t>-0,16; 16,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 14,75</t>
+          <t>-4,05; 13,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 15,7</t>
+          <t>-16,13; 15,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 11,88</t>
+          <t>-22,0; 9,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,47</t>
+          <t>-0,31; 29,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 25,76</t>
+          <t>-6,14; 23,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
